--- a/sofaplayer/Ligue_1/Paris FC_stats.xlsx
+++ b/sofaplayer/Ligue_1/Paris FC_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL28"/>
+  <dimension ref="A1:DL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,13 +1038,13 @@
         <v>6.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2345</v>
+        <v>0.3449</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -1101,34 +1101,34 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0174072</v>
+        <v>0.111608</v>
       </c>
       <c r="AB2" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>77.777777777778</v>
+        <v>77.41935483871001</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK2" t="n">
         <v>1</v>
@@ -1149,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="BB2" t="n">
-        <v>16.666666666667</v>
+        <v>11.111111111111</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="BF2" t="n">
-        <v>20</v>
+        <v>14.285714285714</v>
       </c>
       <c r="BG2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1221,28 +1221,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="BR2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS2" t="n">
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB2" t="n">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CV2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="DG2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ2" t="n">
         <v>2664522</v>
@@ -1391,16 +1391,16 @@
         <v>330051</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7444444444444</v>
+        <v>6.7315789473684</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
         <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>1282</v>
+        <v>1309</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1409,22 +1409,22 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1122</v>
+        <v>2.141</v>
       </c>
       <c r="L3" t="n">
-        <v>427.33333333333</v>
+        <v>436.33333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,34 +1457,34 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.46166993</v>
+        <v>2.47318583</v>
       </c>
       <c r="AB3" t="n">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="AC3" t="n">
         <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AF3" t="n">
-        <v>83.928571428571</v>
+        <v>84.32055749128899</v>
       </c>
       <c r="AG3" t="n">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AH3" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AJ3" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK3" t="n">
         <v>4</v>
@@ -1496,13 +1496,13 @@
         <v>16</v>
       </c>
       <c r="AN3" t="n">
-        <v>20.512820512821</v>
+        <v>20.253164556962</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
         <v>9</v>
@@ -1514,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1535,16 +1535,16 @@
         <v>36.842105263158</v>
       </c>
       <c r="BA3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BB3" t="n">
-        <v>29.166666666667</v>
+        <v>29.268292682927</v>
       </c>
       <c r="BC3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD3" t="n">
-        <v>30.927835051546</v>
+        <v>31</v>
       </c>
       <c r="BE3" t="n">
         <v>5</v>
@@ -1553,10 +1553,10 @@
         <v>21.739130434783</v>
       </c>
       <c r="BG3" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BH3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI3" t="n">
         <v>8</v>
@@ -1577,16 +1577,16 @@
         <v>1</v>
       </c>
       <c r="BO3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>121.4</v>
+        <v>127.9</v>
       </c>
       <c r="BR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS3" t="n">
         <v>5</v>
@@ -1613,10 +1613,10 @@
         <v>14</v>
       </c>
       <c r="CA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CB3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CC3" t="n">
         <v>13</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CK3" t="n">
         <v>2</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CS3" t="n">
         <v>38</v>
       </c>
       <c r="CT3" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CU3" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="CV3" t="n">
         <v>18</v>
@@ -1691,10 +1691,10 @@
         <v>10</v>
       </c>
       <c r="DA3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB3" t="n">
-        <v>75</v>
+        <v>77.777777777778</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="DG3" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>940328</v>
       </c>
       <c r="E4" t="n">
-        <v>6.61</v>
+        <v>6.6380952380952</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
         <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>954</v>
+        <v>971</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.9004</v>
+        <v>3.0278</v>
       </c>
       <c r="L4" t="n">
-        <v>477</v>
+        <v>485.5</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>10</v>
+        <v>9.523809523809501</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -1813,40 +1813,40 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.20528405</v>
+        <v>2.23835995</v>
       </c>
       <c r="AB4" t="n">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="AC4" t="n">
         <v>4</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AF4" t="n">
-        <v>73.232323232323</v>
+        <v>72.596153846154</v>
       </c>
       <c r="AG4" t="n">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="AH4" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI4" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>55.555555555556</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>5</v>
@@ -1867,7 +1867,7 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT4" t="n">
         <v>6</v>
@@ -1885,31 +1885,31 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ4" t="n">
-        <v>32.352941176471</v>
+        <v>35.897435897436</v>
       </c>
       <c r="BA4" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="BB4" t="n">
-        <v>37.662337662338</v>
+        <v>39.393939393939</v>
       </c>
       <c r="BC4" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BD4" t="n">
-        <v>38.461538461538</v>
+        <v>40.594059405941</v>
       </c>
       <c r="BE4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BF4" t="n">
-        <v>36.507936507937</v>
+        <v>37.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BH4" t="n">
         <v>16</v>
@@ -1933,22 +1933,22 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>132.2</v>
+        <v>139.4</v>
       </c>
       <c r="BR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS4" t="n">
         <v>4</v>
       </c>
       <c r="BT4" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,19 +1966,19 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CA4" t="n">
         <v>5</v>
       </c>
       <c r="CB4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CK4" t="n">
         <v>3</v>
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CS4" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="CT4" t="n">
         <v>3</v>
       </c>
       <c r="CU4" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="CV4" t="n">
         <v>40</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="DA4" t="n">
         <v>8</v>
       </c>
-      <c r="DA4" t="n">
-        <v>6</v>
-      </c>
       <c r="DB4" t="n">
-        <v>60</v>
+        <v>61.538461538462</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="DG4" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -3523,16 +3523,16 @@
         <v>1049442</v>
       </c>
       <c r="E9" t="n">
-        <v>7.59</v>
+        <v>7.5857142857143</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>1722</v>
+        <v>1812</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -3541,22 +3541,22 @@
         <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>5.3391</v>
+        <v>5.5446</v>
       </c>
       <c r="L9" t="n">
-        <v>215.25</v>
+        <v>226.5</v>
       </c>
       <c r="M9" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
         <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>19.512195121951</v>
+        <v>18.604651162791</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
@@ -3589,94 +3589,94 @@
         <v>4</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.3830935</v>
+        <v>4.6299935</v>
       </c>
       <c r="AB9" t="n">
-        <v>1519</v>
+        <v>1603</v>
       </c>
       <c r="AC9" t="n">
         <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE9" t="n">
-        <v>972</v>
+        <v>1027</v>
       </c>
       <c r="AF9" t="n">
-        <v>86.55387355298301</v>
+        <v>86.52064026958701</v>
       </c>
       <c r="AG9" t="n">
-        <v>1123</v>
+        <v>1187</v>
       </c>
       <c r="AH9" t="n">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="AI9" t="n">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="AJ9" t="n">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL9" t="n">
-        <v>73.863636363636</v>
+        <v>72.52747252747299</v>
       </c>
       <c r="AM9" t="n">
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>18.75</v>
+        <v>17.857142857143</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
       </c>
       <c r="AP9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
         <v>26</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>91</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>24</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>45.283018867925</v>
+        <v>45.614035087719</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="BB9" t="n">
-        <v>52.879581151832</v>
+        <v>52.73631840796</v>
       </c>
       <c r="BC9" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="BD9" t="n">
-        <v>55.307262569832</v>
+        <v>55.026455026455</v>
       </c>
       <c r="BE9" t="n">
         <v>2</v>
@@ -3685,13 +3685,13 @@
         <v>16.666666666667</v>
       </c>
       <c r="BG9" t="n">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="BH9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI9" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BJ9" t="n">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>2</v>
       </c>
       <c r="BO9" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>151.8</v>
+        <v>159.3</v>
       </c>
       <c r="BR9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS9" t="n">
         <v>12</v>
       </c>
       <c r="BT9" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CA9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CB9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CC9" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="CD9" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="CK9" t="n">
         <v>3</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CS9" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="CT9" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="CU9" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="CV9" t="n">
         <v>10</v>
@@ -3820,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="DA9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DB9" t="n">
-        <v>57.692307692308</v>
+        <v>59.259259259259</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="DG9" t="n">
-        <v>718</v>
+        <v>756</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3879,16 +3879,16 @@
         <v>894733</v>
       </c>
       <c r="E10" t="n">
-        <v>6.725</v>
+        <v>6.56</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2177</v>
+        <v>0.2908</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.008103300000000001</v>
+        <v>0.01410452</v>
       </c>
       <c r="AB10" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -3957,28 +3957,28 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="AF10" t="n">
-        <v>72.972972972973</v>
+        <v>78.181818181818</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -3990,13 +3990,13 @@
         <v>1</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>1</v>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -4023,28 +4023,28 @@
         <v>50</v>
       </c>
       <c r="BA10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>53.846153846154</v>
+        <v>42.105263157895</v>
       </c>
       <c r="BC10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD10" t="n">
-        <v>37.5</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BE10" t="n">
         <v>4</v>
       </c>
       <c r="BF10" t="n">
-        <v>80</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG10" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BH10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI10" t="n">
         <v>3</v>
@@ -4065,47 +4065,47 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>26.9</v>
+        <v>32.8</v>
       </c>
       <c r="BR10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB10" t="n">
         <v>4</v>
       </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>2</v>
-      </c>
       <c r="CC10" t="n">
         <v>1</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="CU10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CV10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="DG10" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ10" t="n">
         <v>2599395</v>
@@ -4235,16 +4235,16 @@
         <v>1216282</v>
       </c>
       <c r="E11" t="n">
-        <v>6.9</v>
+        <v>6.88</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0.5877</v>
       </c>
       <c r="L11" t="n">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
@@ -4301,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.03141215</v>
+        <v>0.03981816</v>
       </c>
       <c r="AB11" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4313,214 +4313,214 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AF11" t="n">
-        <v>70.58823529411799</v>
+        <v>70.68965517241401</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
         <v>11</v>
       </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>62.962962962963</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>33</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" t="n">
         <v>8</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>73.333333333333</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>20</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>10</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>4</v>
       </c>
       <c r="CT11" t="n">
         <v>4</v>
       </c>
       <c r="CU11" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CV11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4535,10 +4535,10 @@
         <v>0</v>
       </c>
       <c r="DA11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DB11" t="n">
-        <v>50</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4550,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="DG11" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4947,16 +4947,16 @@
         <v>352802</v>
       </c>
       <c r="E13" t="n">
-        <v>6.9210526315789</v>
+        <v>6.91</v>
       </c>
       <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
         <v>19</v>
       </c>
-      <c r="G13" t="n">
-        <v>18</v>
-      </c>
       <c r="H13" t="n">
-        <v>1605</v>
+        <v>1686</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4965,16 +4965,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3108</v>
+        <v>0.3257</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -5013,10 +5013,10 @@
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.8849872</v>
+        <v>3.9327858</v>
       </c>
       <c r="AB13" t="n">
-        <v>1677</v>
+        <v>1776</v>
       </c>
       <c r="AC13" t="n">
         <v>12</v>
@@ -5025,28 +5025,28 @@
         <v>38</v>
       </c>
       <c r="AE13" t="n">
-        <v>1304</v>
+        <v>1383</v>
       </c>
       <c r="AF13" t="n">
-        <v>89.993098688751</v>
+        <v>89.630589760207</v>
       </c>
       <c r="AG13" t="n">
-        <v>1449</v>
+        <v>1543</v>
       </c>
       <c r="AH13" t="n">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="AI13" t="n">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="AJ13" t="n">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="AK13" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL13" t="n">
-        <v>58.181818181818</v>
+        <v>56.896551724138</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
@@ -5061,16 +5061,16 @@
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR13" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AS13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
         <v>3</v>
@@ -5085,22 +5085,22 @@
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>25</v>
+        <v>31.818181818182</v>
       </c>
       <c r="BA13" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>35.294117647059</v>
+      </c>
+      <c r="BC13" t="n">
         <v>34</v>
       </c>
-      <c r="BB13" t="n">
-        <v>34.343434343434</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>32</v>
-      </c>
       <c r="BD13" t="n">
-        <v>34.042553191489</v>
+        <v>35.051546391753</v>
       </c>
       <c r="BE13" t="n">
         <v>2</v>
@@ -5109,7 +5109,7 @@
         <v>40</v>
       </c>
       <c r="BG13" t="n">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="BH13" t="n">
         <v>26</v>
@@ -5133,22 +5133,22 @@
         <v>4</v>
       </c>
       <c r="BO13" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>131.5</v>
+        <v>138.2</v>
       </c>
       <c r="BR13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS13" t="n">
         <v>3</v>
       </c>
       <c r="BT13" t="n">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5169,16 +5169,16 @@
         <v>2</v>
       </c>
       <c r="CA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB13" t="n">
         <v>12</v>
       </c>
       <c r="CC13" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="CD13" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CK13" t="n">
         <v>3</v>
@@ -5223,13 +5223,13 @@
         <v>38</v>
       </c>
       <c r="CS13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CT13" t="n">
         <v>70</v>
       </c>
       <c r="CU13" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CV13" t="n">
         <v>3</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="DA13" t="n">
         <v>14</v>
@@ -5262,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="DG13" t="n">
-        <v>770</v>
+        <v>821</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5303,16 +5303,16 @@
         <v>801306</v>
       </c>
       <c r="E14" t="n">
-        <v>6.9307692307692</v>
+        <v>6.85</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>0.7526</v>
       </c>
       <c r="L14" t="n">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="M14" t="n">
         <v>18</v>
@@ -5369,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.83207098</v>
+        <v>0.83316663</v>
       </c>
       <c r="AB14" t="n">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
@@ -5381,22 +5381,22 @@
         <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="AF14" t="n">
-        <v>84.786324786325</v>
+        <v>84.808013355593</v>
       </c>
       <c r="AG14" t="n">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="AH14" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AI14" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AJ14" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK14" t="n">
         <v>47</v>
@@ -5414,19 +5414,19 @@
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ14" t="n">
         <v>8</v>
       </c>
       <c r="AR14" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -5435,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
         <v>2</v>
@@ -5447,16 +5447,16 @@
         <v>50</v>
       </c>
       <c r="BA14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB14" t="n">
-        <v>52.586206896552</v>
+        <v>51.666666666667</v>
       </c>
       <c r="BC14" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BD14" t="n">
-        <v>54.368932038835</v>
+        <v>53.271028037383</v>
       </c>
       <c r="BE14" t="n">
         <v>5</v>
@@ -5465,10 +5465,10 @@
         <v>38.461538461538</v>
       </c>
       <c r="BG14" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BH14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI14" t="n">
         <v>16</v>
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -5489,22 +5489,22 @@
         <v>2</v>
       </c>
       <c r="BO14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>90.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="BR14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>9</v>
       </c>
       <c r="CB14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC14" t="n">
         <v>67</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CK14" t="n">
         <v>2</v>
@@ -5585,7 +5585,7 @@
         <v>11</v>
       </c>
       <c r="CU14" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CV14" t="n">
         <v>8</v>
@@ -5603,10 +5603,10 @@
         <v>87</v>
       </c>
       <c r="DA14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DB14" t="n">
-        <v>64.705882352941</v>
+        <v>65.71428571428601</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5618,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="DG14" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5659,16 +5659,16 @@
         <v>1961626</v>
       </c>
       <c r="E15" t="n">
-        <v>6.5466666666667</v>
+        <v>6.5125</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5725,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.12531374</v>
+        <v>0.12923199</v>
       </c>
       <c r="AB15" t="n">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5737,52 +5737,52 @@
         <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="AF15" t="n">
-        <v>89.07563025210101</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="AG15" t="n">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AH15" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AJ15" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>57.142857142857</v>
+        <v>52.941176470588</v>
       </c>
       <c r="AM15" t="n">
         <v>1</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>16.666666666667</v>
       </c>
       <c r="AO15" t="n">
         <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU15" t="n">
         <v>3</v>
@@ -5800,40 +5800,40 @@
         <v>4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="BA15" t="n">
+        <v>31</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>43.055555555556</v>
+      </c>
+      <c r="BC15" t="n">
         <v>26</v>
       </c>
-      <c r="BB15" t="n">
-        <v>42.622950819672</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>23</v>
-      </c>
       <c r="BD15" t="n">
-        <v>47.916666666667</v>
+        <v>45.614035087719</v>
       </c>
       <c r="BE15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF15" t="n">
-        <v>23.076923076923</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG15" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="BH15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ15" t="n">
         <v>1</v>
       </c>
       <c r="BK15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -5845,22 +5845,22 @@
         <v>1</v>
       </c>
       <c r="BO15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>98.2</v>
+        <v>104.2</v>
       </c>
       <c r="BR15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5887,10 +5887,10 @@
         <v>5</v>
       </c>
       <c r="CC15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CD15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5908,40 +5908,40 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT15" t="n">
         <v>6</v>
       </c>
-      <c r="CK15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>6</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>5</v>
-      </c>
       <c r="CU15" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="CV15" t="n">
         <v>10</v>
@@ -5956,13 +5956,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="DA15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="DB15" t="n">
-        <v>80</v>
+        <v>76.92307692307701</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="DG15" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6727,16 +6727,16 @@
         <v>795508</v>
       </c>
       <c r="E18" t="n">
-        <v>6.64</v>
+        <v>6.64375</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="n">
         <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6745,13 +6745,13 @@
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.0978</v>
+        <v>2.1209</v>
       </c>
       <c r="L18" t="n">
-        <v>361.5</v>
+        <v>370</v>
       </c>
       <c r="M18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" t="n">
         <v>7</v>
@@ -6760,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>9.090909090909101</v>
+        <v>8.695652173913</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.21614299</v>
+        <v>0.27574069</v>
       </c>
       <c r="AB18" t="n">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6805,22 +6805,22 @@
         <v>3</v>
       </c>
       <c r="AE18" t="n">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AF18" t="n">
-        <v>87.826086956522</v>
+        <v>87.988826815642</v>
       </c>
       <c r="AG18" t="n">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="AH18" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AI18" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AK18" t="n">
         <v>8</v>
@@ -6838,13 +6838,13 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ18" t="n">
         <v>2</v>
       </c>
       <c r="AR18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS18" t="n">
         <v>6</v>
@@ -6868,19 +6868,19 @@
         <v>8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>88.888888888889</v>
+        <v>80</v>
       </c>
       <c r="BA18" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BB18" t="n">
-        <v>47.945205479452</v>
+        <v>48</v>
       </c>
       <c r="BC18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD18" t="n">
-        <v>47.169811320755</v>
+        <v>47.272727272727</v>
       </c>
       <c r="BE18" t="n">
         <v>10</v>
@@ -6889,7 +6889,7 @@
         <v>50</v>
       </c>
       <c r="BG18" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BH18" t="n">
         <v>12</v>
@@ -6913,28 +6913,28 @@
         <v>0</v>
       </c>
       <c r="BO18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>99.59999999999999</v>
+        <v>106.3</v>
       </c>
       <c r="BR18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS18" t="n">
         <v>2</v>
       </c>
       <c r="BT18" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -6949,13 +6949,13 @@
         <v>9</v>
       </c>
       <c r="CA18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CB18" t="n">
         <v>9</v>
       </c>
       <c r="CC18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CD18" t="n">
         <v>13</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CK18" t="n">
         <v>3</v>
@@ -7003,13 +7003,13 @@
         <v>3</v>
       </c>
       <c r="CS18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CT18" t="n">
         <v>1</v>
       </c>
       <c r="CU18" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CV18" t="n">
         <v>10</v>
@@ -7027,10 +7027,10 @@
         <v>24</v>
       </c>
       <c r="DA18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DB18" t="n">
-        <v>84.615384615385</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="DG18" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7795,16 +7795,16 @@
         <v>982319</v>
       </c>
       <c r="E21" t="n">
-        <v>6.86</v>
+        <v>6.8238095238095</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>1800</v>
+        <v>1816</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7861,10 +7861,10 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.44969699</v>
+        <v>0.45125705</v>
       </c>
       <c r="AB21" t="n">
-        <v>1445</v>
+        <v>1463</v>
       </c>
       <c r="AC21" t="n">
         <v>1</v>
@@ -7873,19 +7873,19 @@
         <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>1086</v>
+        <v>1101</v>
       </c>
       <c r="AF21" t="n">
-        <v>91.645569620253</v>
+        <v>91.673605328893</v>
       </c>
       <c r="AG21" t="n">
-        <v>1185</v>
+        <v>1201</v>
       </c>
       <c r="AH21" t="n">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="AI21" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AJ21" t="n">
         <v>88</v>
@@ -7912,13 +7912,13 @@
         <v>3</v>
       </c>
       <c r="AR21" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>102</v>
       </c>
       <c r="BB21" t="n">
-        <v>64.96815286624199</v>
+        <v>64.556962025316</v>
       </c>
       <c r="BC21" t="n">
         <v>55</v>
@@ -7954,10 +7954,10 @@
         <v>47</v>
       </c>
       <c r="BF21" t="n">
-        <v>64.383561643836</v>
+        <v>63.513513513514</v>
       </c>
       <c r="BG21" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BH21" t="n">
         <v>18</v>
@@ -7981,22 +7981,22 @@
         <v>5</v>
       </c>
       <c r="BO21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>137.2</v>
+        <v>143.3</v>
       </c>
       <c r="BR21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS21" t="n">
         <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CK21" t="n">
         <v>3</v>
@@ -8077,10 +8077,10 @@
         <v>2</v>
       </c>
       <c r="CU21" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CV21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="DG21" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="DH21" t="n">
         <v>1</v>
@@ -8151,16 +8151,16 @@
         <v>1069159</v>
       </c>
       <c r="E22" t="n">
-        <v>6.9055555555556</v>
+        <v>6.8842105263158</v>
       </c>
       <c r="F22" t="n">
+        <v>19</v>
+      </c>
+      <c r="G22" t="n">
         <v>18</v>
       </c>
-      <c r="G22" t="n">
-        <v>17</v>
-      </c>
       <c r="H22" t="n">
-        <v>1560</v>
+        <v>1634</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -8169,16 +8169,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2377</v>
+        <v>0.26</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -8217,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.22640165</v>
+        <v>0.23399327</v>
       </c>
       <c r="AB22" t="n">
-        <v>1443</v>
+        <v>1516</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8229,55 +8229,55 @@
         <v>3</v>
       </c>
       <c r="AE22" t="n">
-        <v>1025</v>
+        <v>1073</v>
       </c>
       <c r="AF22" t="n">
-        <v>88.898525585429</v>
+        <v>88.751033912324</v>
       </c>
       <c r="AG22" t="n">
-        <v>1153</v>
+        <v>1209</v>
       </c>
       <c r="AH22" t="n">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="AI22" t="n">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="AJ22" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AK22" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AL22" t="n">
-        <v>51.639344262295</v>
+        <v>51.162790697674</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP22" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AQ22" t="n">
         <v>3</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AS22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT22" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AU22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV22" t="n">
         <v>2</v>
@@ -8286,37 +8286,37 @@
         <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>71.428571428571</v>
+        <v>62.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BB22" t="n">
-        <v>60.144927536232</v>
+        <v>58.904109589041</v>
       </c>
       <c r="BC22" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="BD22" t="n">
-        <v>63</v>
+        <v>61.682242990654</v>
       </c>
       <c r="BE22" t="n">
         <v>20</v>
       </c>
       <c r="BF22" t="n">
-        <v>52.631578947368</v>
+        <v>51.282051282051</v>
       </c>
       <c r="BG22" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="BH22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BI22" t="n">
         <v>24</v>
@@ -8337,22 +8337,22 @@
         <v>5</v>
       </c>
       <c r="BO22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>124.3</v>
+        <v>130.8</v>
       </c>
       <c r="BR22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="BU22" t="n">
         <v>1</v>
@@ -8373,16 +8373,16 @@
         <v>5</v>
       </c>
       <c r="CA22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CB22" t="n">
         <v>7</v>
       </c>
       <c r="CC22" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="CD22" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8400,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CK22" t="n">
         <v>1</v>
@@ -8427,16 +8427,16 @@
         <v>3</v>
       </c>
       <c r="CS22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CU22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="CV22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8448,13 +8448,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="DA22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="DB22" t="n">
-        <v>55.882352941176</v>
+        <v>59.459459459459</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8466,16 +8466,16 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>813</v>
+        <v>841</v>
       </c>
       <c r="DG22" t="n">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="DH22" t="n">
         <v>6</v>
       </c>
       <c r="DI22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DJ22" t="n">
         <v>2163950</v>
@@ -8500,317 +8500,315 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nhoa Sangui</t>
+          <t>Diego Coppola</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1426221</v>
+        <v>1050692</v>
       </c>
       <c r="E23" t="n">
-        <v>6.4928571428571</v>
+        <v>5.6</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>90</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.0134655</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>86.567164179104</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
         <v>8</v>
       </c>
-      <c r="H23" t="n">
-        <v>834</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1221</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.87139092</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>565</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>325</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>85.301837270341</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>381</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>162</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>163</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>73</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>25.925925925926</v>
-      </c>
-      <c r="AM23" t="n">
+      <c r="CD23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
         <v>9</v>
       </c>
-      <c r="AN23" t="n">
-        <v>40.909090909091</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>18.181818181818</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>59.574468085106</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>26</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>63.414634146341</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>95</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>56</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>11</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>6</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>14</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>11</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>11</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>22</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>19</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>27</v>
-      </c>
       <c r="DA23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="DB23" t="n">
-        <v>57.142857142857</v>
+        <v>0</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8822,19 +8820,19 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="DG23" t="n">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
       </c>
       <c r="DI23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DJ23" t="n">
-        <v>2145464</v>
+        <v>2675695</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8856,197 +8854,197 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Thibault De Smet</t>
+          <t>Nhoa Sangui</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>844744</v>
+        <v>1426221</v>
       </c>
       <c r="E24" t="n">
-        <v>6.4142857142857</v>
+        <v>6.4733333333333</v>
       </c>
       <c r="F24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>924</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1221</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.90642262</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>627</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>359</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>85.885167464115</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>418</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>181</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>178</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>25.925925925926</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP24" t="n">
         <v>14</v>
       </c>
-      <c r="G24" t="n">
+      <c r="AQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>47</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>30.769230769231</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>31</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>58.490566037736</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>61.702127659574</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>103</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI24" t="n">
         <v>11</v>
       </c>
-      <c r="H24" t="n">
-        <v>946</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.1887</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.43002571</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>704</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>413</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>85.50724637681201</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>483</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>238</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>175</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>69</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>35.714285714286</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>17.391304347826</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>42</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>58.333333333333</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>34</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>58.620689655172</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>105</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>13</v>
-      </c>
       <c r="BJ24" t="n">
         <v>1</v>
       </c>
       <c r="BK24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM24" t="n">
         <v>0</v>
       </c>
       <c r="BN24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO24" t="n">
         <v>20</v>
@@ -9055,22 +9053,22 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>89.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="BR24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
       </c>
       <c r="BV24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BW24" t="n">
         <v>0</v>
@@ -9085,16 +9083,16 @@
         <v>1</v>
       </c>
       <c r="CA24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CC24" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="CD24" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9112,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL24" t="n">
         <v>0</v>
@@ -9136,20 +9134,20 @@
         <v>0</v>
       </c>
       <c r="CR24" t="n">
+        <v>13</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>25</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>22</v>
+      </c>
+      <c r="CV24" t="n">
         <v>4</v>
       </c>
-      <c r="CS24" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT24" t="n">
-        <v>23</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>30</v>
-      </c>
-      <c r="CV24" t="n">
-        <v>6</v>
-      </c>
       <c r="CW24" t="n">
         <v>0</v>
       </c>
@@ -9160,16 +9158,16 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="DA24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="DB24" t="n">
-        <v>52.631578947368</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD24" t="n">
         <v>0</v>
@@ -9178,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="DG24" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
@@ -9190,7 +9188,7 @@
         <v>2</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2197193</v>
+        <v>2145464</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
@@ -9212,138 +9210,138 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tuomas Ollila</t>
+          <t>Thibault De Smet</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>930813</v>
+        <v>844744</v>
       </c>
       <c r="E25" t="n">
-        <v>6.625</v>
+        <v>6.4142857142857</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
+        <v>11</v>
+      </c>
+      <c r="H25" t="n">
+        <v>946</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1887</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.43002571</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>704</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>413</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>85.50724637681201</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>483</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>238</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>69</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>35.714285714286</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>17.391304347826</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>3</v>
       </c>
-      <c r="H25" t="n">
-        <v>311</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.0721</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.78332853</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>72.58064516128999</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>124</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>56</v>
-      </c>
-      <c r="AI25" t="n">
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT25" t="n">
         <v>34</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>30.769230769231</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>8</v>
-      </c>
       <c r="AU25" t="n">
         <v>1</v>
       </c>
@@ -9351,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="AW25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
         <v>0</v>
@@ -9363,71 +9361,71 @@
         <v>50</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="BB25" t="n">
-        <v>60</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="BD25" t="n">
-        <v>61.111111111111</v>
+        <v>58.620689655172</v>
       </c>
       <c r="BE25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF25" t="n">
-        <v>58.333333333333</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG25" t="n">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="BH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>20</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
         <v>3</v>
       </c>
-      <c r="BI25" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>53</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>8</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>34</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>2</v>
-      </c>
       <c r="BW25" t="n">
         <v>0</v>
       </c>
@@ -9438,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="BZ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA25" t="n">
         <v>3</v>
@@ -9447,10 +9445,10 @@
         <v>3</v>
       </c>
       <c r="CC25" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="CD25" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="CE25" t="n">
         <v>0</v>
@@ -9468,10 +9466,10 @@
         <v>0</v>
       </c>
       <c r="CJ25" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="CK25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL25" t="n">
         <v>0</v>
@@ -9492,19 +9490,19 @@
         <v>0</v>
       </c>
       <c r="CR25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS25" t="n">
         <v>4</v>
       </c>
       <c r="CT25" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="CU25" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="CV25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW25" t="n">
         <v>0</v>
@@ -9516,16 +9514,16 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="DA25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="DB25" t="n">
-        <v>50</v>
+        <v>52.631578947368</v>
       </c>
       <c r="DC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD25" t="n">
         <v>0</v>
@@ -9534,19 +9532,19 @@
         <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="DG25" t="n">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="DH25" t="n">
         <v>0</v>
       </c>
       <c r="DI25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ25" t="n">
-        <v>2411264</v>
+        <v>2197193</v>
       </c>
       <c r="DK25" t="inlineStr">
         <is>
@@ -9568,23 +9566,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Timothée Kolodziejczak</t>
+          <t>Tuomas Ollila</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>41605</v>
+        <v>930813</v>
       </c>
       <c r="E26" t="n">
-        <v>6.5555555555556</v>
+        <v>6.625</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>584</v>
+        <v>311</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -9593,16 +9591,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1181</v>
+        <v>0.0721</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9635,121 +9633,121 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.08665004</v>
+        <v>0.78332853</v>
       </c>
       <c r="AB26" t="n">
-        <v>477</v>
+        <v>200</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>368</v>
+        <v>90</v>
       </c>
       <c r="AF26" t="n">
-        <v>90.196078431373</v>
+        <v>72.58064516128999</v>
       </c>
       <c r="AG26" t="n">
-        <v>408</v>
+        <v>124</v>
       </c>
       <c r="AH26" t="n">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="AI26" t="n">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AL26" t="n">
-        <v>43.589743589744</v>
+        <v>30.769230769231</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
         <v>8</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>34</v>
-      </c>
       <c r="AU26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>45.714285714286</v>
+        <v>60</v>
       </c>
       <c r="BC26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD26" t="n">
-        <v>64.28571428571399</v>
+        <v>61.111111111111</v>
       </c>
       <c r="BE26" t="n">
         <v>7</v>
       </c>
       <c r="BF26" t="n">
-        <v>33.333333333333</v>
+        <v>58.333333333333</v>
       </c>
       <c r="BG26" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="BH26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BI26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL26" t="n">
         <v>0</v>
@@ -9758,109 +9756,109 @@
         <v>0</v>
       </c>
       <c r="BN26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>53</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>34</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT26" t="n">
         <v>9</v>
       </c>
-      <c r="BP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>59</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>9</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>40</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>24</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>9</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>9</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT26" t="n">
-        <v>0</v>
-      </c>
       <c r="CU26" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="CV26" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="CW26" t="n">
         <v>0</v>
@@ -9872,10 +9870,10 @@
         <v>0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="DA26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DB26" t="n">
         <v>50</v>
@@ -9890,19 +9888,19 @@
         <v>0</v>
       </c>
       <c r="DF26" t="n">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="DG26" t="n">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="DH26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DI26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>2145512</v>
+        <v>2411264</v>
       </c>
       <c r="DK26" t="inlineStr">
         <is>
@@ -9924,204 +9922,206 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Kevin Trapp</t>
+          <t>Timothée Kolodziejczak</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38440</v>
+        <v>41605</v>
       </c>
       <c r="E27" t="n">
-        <v>6.72</v>
+        <v>6.48</v>
       </c>
       <c r="F27" t="n">
+        <v>11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>674</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1181</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.09711124</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>574</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>448</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>90.322580645161</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>496</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>333</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>115</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>46.666666666667</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>57.894736842105</v>
+      </c>
+      <c r="BE27" t="n">
         <v>10</v>
       </c>
-      <c r="G27" t="n">
-        <v>10</v>
-      </c>
-      <c r="H27" t="n">
-        <v>900</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.00479919</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>486</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>298</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>76.606683804627</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>389</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>280</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>47</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>34.306569343066</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>86</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>2</v>
-      </c>
       <c r="BF27" t="n">
-        <v>100</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BG27" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="BH27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BI27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ27" t="n">
         <v>0</v>
       </c>
       <c r="BK27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL27" t="n">
         <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BN27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO27" t="n">
         <v>14</v>
       </c>
       <c r="BP27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>67.2</v>
+        <v>64.8</v>
       </c>
       <c r="BR27" t="n">
         <v>10</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="BT27" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="BU27" t="n">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="BZ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA27" t="n">
         <v>0</v>
@@ -10157,10 +10157,10 @@
         <v>0</v>
       </c>
       <c r="CC27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="CD27" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="CE27" t="n">
         <v>0</v>
@@ -10169,13 +10169,13 @@
         <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CH27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="CI27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ27" t="n">
         <v>14</v>
@@ -10184,88 +10184,86 @@
         <v>0</v>
       </c>
       <c r="CL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>24</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>16</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>40</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="DC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>347</v>
+      </c>
+      <c r="DG27" t="n">
+        <v>149</v>
+      </c>
+      <c r="DH27" t="n">
+        <v>5</v>
+      </c>
+      <c r="DI27" t="n">
         <v>3</v>
       </c>
-      <c r="CM27" t="n">
-        <v>6</v>
-      </c>
-      <c r="CN27" t="n">
-        <v>6</v>
-      </c>
-      <c r="CO27" t="n">
-        <v>7</v>
-      </c>
-      <c r="CP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ27" t="n">
-        <v>137</v>
-      </c>
-      <c r="DA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE27" t="n">
-        <v>3</v>
-      </c>
-      <c r="DF27" t="n">
-        <v>307</v>
-      </c>
-      <c r="DG27" t="n">
-        <v>82</v>
-      </c>
-      <c r="DH27" t="n">
-        <v>79</v>
-      </c>
-      <c r="DI27" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ27" t="n">
-        <v>2197187</v>
+        <v>2145512</v>
       </c>
       <c r="DK27" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL27" t="n">
-        <v>0.4084</v>
-      </c>
+      <c r="DL27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10280,14 +10278,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Obed Nkambadio</t>
+          <t>Kevin Trapp</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1015872</v>
+        <v>38440</v>
       </c>
       <c r="E28" t="n">
-        <v>6.4181818181818</v>
+        <v>6.6545454545455</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
@@ -10351,40 +10349,40 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.00737526</v>
+        <v>0.00488488</v>
       </c>
       <c r="AB28" t="n">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="AF28" t="n">
-        <v>79.86270022883301</v>
+        <v>77.90973871734001</v>
       </c>
       <c r="AG28" t="n">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AH28" t="n">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="AI28" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AL28" t="n">
-        <v>35.294117647059</v>
+        <v>33.812949640288</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -10393,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
@@ -10402,13 +10400,13 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -10417,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX28" t="n">
         <v>0</v>
@@ -10429,31 +10427,31 @@
         <v>0</v>
       </c>
       <c r="BA28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB28" t="n">
-        <v>66.666666666667</v>
+        <v>100</v>
       </c>
       <c r="BC28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD28" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BE28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF28" t="n">
         <v>100</v>
       </c>
       <c r="BG28" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="BH28" t="n">
         <v>0</v>
       </c>
       <c r="BI28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ28" t="n">
         <v>0</v>
@@ -10468,16 +10466,16 @@
         <v>23</v>
       </c>
       <c r="BN28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BO28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BP28" t="n">
         <v>1</v>
       </c>
       <c r="BQ28" t="n">
-        <v>70.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="BR28" t="n">
         <v>11</v>
@@ -10486,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="BT28" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="BU28" t="n">
         <v>0</v>
@@ -10513,113 +10511,469 @@
         <v>0</v>
       </c>
       <c r="CC28" t="n">
+        <v>30</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>18</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>6</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>16</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ28" t="n">
         <v>19</v>
       </c>
-      <c r="CD28" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG28" t="n">
-        <v>4</v>
-      </c>
-      <c r="CH28" t="n">
-        <v>15</v>
-      </c>
-      <c r="CI28" t="n">
-        <v>8</v>
-      </c>
-      <c r="CJ28" t="n">
-        <v>17</v>
-      </c>
       <c r="CK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL28" t="n">
         <v>3</v>
       </c>
-      <c r="CL28" t="n">
-        <v>4</v>
-      </c>
       <c r="CM28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CN28" t="n">
         <v>7</v>
       </c>
       <c r="CO28" t="n">
+        <v>7</v>
+      </c>
+      <c r="CP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ28" t="n">
+        <v>139</v>
+      </c>
+      <c r="DA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE28" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>339</v>
+      </c>
+      <c r="DG28" t="n">
+        <v>82</v>
+      </c>
+      <c r="DH28" t="n">
+        <v>84</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ28" t="n">
+        <v>2197187</v>
+      </c>
+      <c r="DK28" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="DL28" t="n">
+        <v>-0.5119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ligue_1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Paris FC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Obed Nkambadio</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1015872</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.4181818181818</v>
+      </c>
+      <c r="F29" t="n">
+        <v>11</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11</v>
+      </c>
+      <c r="H29" t="n">
+        <v>990</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.00737526</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>529</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>349</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>79.86270022883301</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>437</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>325</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>4</v>
       </c>
-      <c r="CP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR28" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU28" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ28" t="n">
+      <c r="AK29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>35.294117647059</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>88</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>89</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>23</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>20</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>11</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>88</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>19</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>15</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>8</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>17</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL29" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM29" t="n">
+        <v>8</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ29" t="n">
         <v>136</v>
       </c>
-      <c r="DA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD28" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE28" t="n">
+      <c r="DA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD29" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE29" t="n">
         <v>7</v>
       </c>
-      <c r="DF28" t="n">
+      <c r="DF29" t="n">
         <v>352</v>
       </c>
-      <c r="DG28" t="n">
+      <c r="DG29" t="n">
         <v>85</v>
       </c>
-      <c r="DH28" t="n">
+      <c r="DH29" t="n">
         <v>71</v>
       </c>
-      <c r="DI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ28" t="n">
+      <c r="DI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ29" t="n">
         <v>2145460</v>
       </c>
-      <c r="DK28" t="inlineStr">
+      <c r="DK29" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL28" t="n">
+      <c r="DL29" t="n">
         <v>-4.9578</v>
       </c>
     </row>
